--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.built.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.built.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -121,7 +121,7 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Identification of the specific individual</t>
+Identification or description of the specific individual from which this sample was obtained</t>
         </r>
       </text>
     </comment>
@@ -135,7 +135,73 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Cultivar name</t>
+Cultivar name - cultivated variety of plant</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Organism group
+a population within a given species displaying genetically based, phenotypic traits that reflect adaptation to a local habitat, e.g., Columbia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>actual mass of water vapor - mh20 - present in the air water vapor mixture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the air at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>primary function for which a building or discrete part of a building is intended to be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>location (geography) where a building is set</t>
         </r>
       </text>
     </comment>
@@ -161,7 +227,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -174,7 +240,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -187,7 +253,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -200,7 +266,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>device which removes solid particulates or airborne molecular contaminants</t>
         </r>
       </text>
     </comment>
@@ -213,7 +292,33 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>methods of conditioning or heating a room or building</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>a distinguishable space within a structure, the purpose for which discrete areas of a building is used</t>
         </r>
       </text>
     </comment>
@@ -226,7 +331,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Pubmed ID, DOI or URL of publication for isolation and growth condition specifications of the organism/material</t>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
         </r>
       </text>
     </comment>
@@ -239,7 +344,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>application of light to achieve some practical or aesthetic effect. Lighting includes the use of both artificial light sources such as lamps and light fixtures, as well as natural illumination by capturing daylight. Can also include absence of light</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>number of occupants present at time of sample within the given space</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>average number of occupants at time of sampling per square footage</t>
         </r>
       </text>
     </comment>
@@ -252,7 +396,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count</t>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>partial vapor and air pressure, density of the vapor and air, or by the actual mass of the vapor and air</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>customary or normal state of the space</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>customary or normal density of occupants</t>
         </r>
       </text>
     </comment>
@@ -278,7 +461,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Free-living or from host</t>
+          <t>Free-living or from host (define relationship)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water.</t>
         </r>
       </text>
     </comment>
@@ -295,6 +491,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of indoor surface</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AL13" authorId="0">
       <text>
         <r>
@@ -304,7 +513,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -360,6 +569,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AQ13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>method by which samples are sorted</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AR13" authorId="0">
       <text>
         <r>
@@ -382,7 +604,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -396,6 +618,97 @@
             <family val="2"/>
           </rPr>
           <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>substructure or under building is that largely hidden section of the building which is built off the foundations to the ground floor level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>contaminant identified on surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>surfaces: water activity as a function of air and material moisture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>surface materials at the point of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>water held on a surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pH measurement of surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the surface at the time of sampling</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.built.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.built.4.0.xlsx
@@ -19,7 +19,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="I15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0">
+    <comment ref="J15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0">
+    <comment ref="K15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0">
+    <comment ref="L15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0">
+    <comment ref="M15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N13" authorId="0">
+    <comment ref="N15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0">
+    <comment ref="O15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="0">
+    <comment ref="P15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="0">
+    <comment ref="Q15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="0">
+    <comment ref="R15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S13" authorId="0">
+    <comment ref="S15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T13" authorId="0">
+    <comment ref="T15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U13" authorId="0">
+    <comment ref="U15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V13" authorId="0">
+    <comment ref="V15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W13" authorId="0">
+    <comment ref="W15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X13" authorId="0">
+    <comment ref="X15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y13" authorId="0">
+    <comment ref="Y15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z13" authorId="0">
+    <comment ref="Z15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA13" authorId="0">
+    <comment ref="AA15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB13" authorId="0">
+    <comment ref="AB15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC13" authorId="0">
+    <comment ref="AC15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD13" authorId="0">
+    <comment ref="AD15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE13" authorId="0">
+    <comment ref="AE15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF13" authorId="0">
+    <comment ref="AF15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG13" authorId="0">
+    <comment ref="AG15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -449,279 +449,6 @@
             <family val="2"/>
           </rPr>
           <t>ventilation system used in the sampled premises</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Free-living or from host (define relationship)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Plasmids that have significance phenotypic consequence</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>type of indoor surface</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Aerobic or anaerobic</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AN13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Method or device employed for collecting sample</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AO13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Processing applied to the sample during or after isolation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Amount or size of sample (volume, mass or area) that was collected</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AQ13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>method by which samples are sorted</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AR13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AT13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AU13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>substructure or under building is that largely hidden section of the building which is built off the foundations to the ground floor level</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AV13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>contaminant identified on surface</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>surfaces: water activity as a function of air and material moisture</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>surface materials at the point of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AY13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>water held on a surface</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AZ13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>pH measurement of surface</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BA13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>temperature of the surface at the time of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BB13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Feeding position in food chain (eg., chemolithotroph)</t>
         </r>
       </text>
     </comment>
@@ -730,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMARKS: specimen, built; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -885,69 +612,6 @@
   </si>
   <si>
     <t>ventilation_type</t>
-  </si>
-  <si>
-    <t>biotic_relationship</t>
-  </si>
-  <si>
-    <t>dew_point</t>
-  </si>
-  <si>
-    <t>extrachrom_elements</t>
-  </si>
-  <si>
-    <t>indoor_surf</t>
-  </si>
-  <si>
-    <t>isolation_source</t>
-  </si>
-  <si>
-    <t>rel_to_oxygen</t>
-  </si>
-  <si>
-    <t>samp_collect_device</t>
-  </si>
-  <si>
-    <t>samp_mat_process</t>
-  </si>
-  <si>
-    <t>samp_size</t>
-  </si>
-  <si>
-    <t>samp_sort_meth</t>
-  </si>
-  <si>
-    <t>samp_vol_we_dna_ext</t>
-  </si>
-  <si>
-    <t>source_material_id</t>
-  </si>
-  <si>
-    <t>subspecf_gen_lin</t>
-  </si>
-  <si>
-    <t>substructure_type</t>
-  </si>
-  <si>
-    <t>surf_air_cont</t>
-  </si>
-  <si>
-    <t>surf_humidity</t>
-  </si>
-  <si>
-    <t>surf_material</t>
-  </si>
-  <si>
-    <t>surf_moisture</t>
-  </si>
-  <si>
-    <t>surf_moisture_ph</t>
-  </si>
-  <si>
-    <t>surf_temp</t>
-  </si>
-  <si>
-    <t>trophic_level</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS14"/>
+  <dimension ref="A1:GS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1365,233 +1029,175 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:33">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="3" customFormat="1">
+    <row r="3" spans="1:33" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="4" customFormat="1">
+    <row r="4" spans="1:33" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="5" customFormat="1">
+    <row r="5" spans="1:33" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:33">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:33">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:33">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:33">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:33">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:33">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:33">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB13" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:54">
+    <row r="13" spans="1:33">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.built.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.built.4.0.xlsx
@@ -618,6 +618,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -702,7 +705,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.built.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.built.4.0.xlsx
@@ -452,12 +452,285 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-living or from host (define relationship)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Plasmids that have significance phenotypic consequence</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of indoor surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>method by which samples are sorted</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>substructure or under building is that largely hidden section of the building which is built off the foundations to the ground floor level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>contaminant identified on surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>surfaces: water activity as a function of air and material moisture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>surface materials at the point of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>water held on a surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pH measurement of surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the surface at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Feeding position in food chain (eg., chemolithotroph)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMARKS: specimen, built; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -612,6 +885,69 @@
   </si>
   <si>
     <t>ventilation_type</t>
+  </si>
+  <si>
+    <t>biotic_relationship</t>
+  </si>
+  <si>
+    <t>dew_point</t>
+  </si>
+  <si>
+    <t>extrachrom_elements</t>
+  </si>
+  <si>
+    <t>indoor_surf</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>rel_to_oxygen</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>samp_sort_meth</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>subspecf_gen_lin</t>
+  </si>
+  <si>
+    <t>substructure_type</t>
+  </si>
+  <si>
+    <t>surf_air_cont</t>
+  </si>
+  <si>
+    <t>surf_humidity</t>
+  </si>
+  <si>
+    <t>surf_material</t>
+  </si>
+  <si>
+    <t>surf_moisture</t>
+  </si>
+  <si>
+    <t>surf_moisture_ph</t>
+  </si>
+  <si>
+    <t>surf_temp</t>
+  </si>
+  <si>
+    <t>trophic_level</t>
   </si>
 </sst>
 </file>
@@ -1032,77 +1368,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:54">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:54">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="3" customFormat="1">
+    <row r="3" spans="1:54" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1">
+    <row r="4" spans="1:54" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1">
+    <row r="5" spans="1:54" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:54">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:54">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:54">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:54">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:54">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:54">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:54">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:54">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:54">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:54">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1201,6 +1537,69 @@
       </c>
       <c r="AG15" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.built.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.built.4.0.xlsx
@@ -617,11 +617,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit the INSDC website, http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
         </r>
       </text>
     </comment>
-    <comment ref="AU15" authorId="0">
+    <comment ref="AV15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV15" authorId="0">
+    <comment ref="AW15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -647,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW15" authorId="0">
+    <comment ref="AX15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX15" authorId="0">
+    <comment ref="AY15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -673,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY15" authorId="0">
+    <comment ref="AZ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -686,7 +699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ15" authorId="0">
+    <comment ref="BA15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA15" authorId="0">
+    <comment ref="BB15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -712,7 +725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB15" authorId="0">
+    <comment ref="BC15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -730,7 +743,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMARKS: specimen, built; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -921,6 +934,9 @@
   </si>
   <si>
     <t>source_material_id</t>
+  </si>
+  <si>
+    <t>specimen_voucher</t>
   </si>
   <si>
     <t>subspecf_gen_lin</t>
@@ -1368,77 +1384,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:55">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:55">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="3" customFormat="1">
+    <row r="3" spans="1:55" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="4" customFormat="1">
+    <row r="4" spans="1:55" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="5" customFormat="1">
+    <row r="5" spans="1:55" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:55">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:55">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:55">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:55">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:55">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:55">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:55">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:55">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:55">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:55">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1600,6 +1616,9 @@
       </c>
       <c r="BB15" s="8" t="s">
         <v>67</v>
+      </c>
+      <c r="BC15" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
